--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value230.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value230.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8437267732451256</v>
+        <v>1.223927855491638</v>
       </c>
       <c r="B1">
-        <v>0.8162696447044715</v>
+        <v>2.171295404434204</v>
       </c>
       <c r="C1">
-        <v>0.8310492098039289</v>
+        <v>4.110167026519775</v>
       </c>
       <c r="D1">
-        <v>1.082996155464774</v>
+        <v>3.106759786605835</v>
       </c>
       <c r="E1">
-        <v>1.764793256687959</v>
+        <v>1.085855007171631</v>
       </c>
     </row>
   </sheetData>
